--- a/微指令.xlsx
+++ b/微指令.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\altera\maxplus2\modmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E6A75-829F-41E4-8AA6-887DAC24C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8F53E3-AFE8-4B68-8CC7-D420DE870632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>LDPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,6 +645,28 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2534,4 +2557,1605 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F85557E-2BE7-477A-87ED-082FAFECFE2E}">
+  <dimension ref="A1:AD21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="57"/>
+    <col min="4" max="8" width="6.58203125" style="56" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="56" customWidth="1"/>
+    <col min="10" max="13" width="6.58203125" style="56" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="56" customWidth="1"/>
+    <col min="15" max="18" width="6.58203125" style="56" customWidth="1"/>
+    <col min="19" max="19" width="7.08203125" style="56" customWidth="1"/>
+    <col min="20" max="20" width="6.58203125" style="56" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="56" customWidth="1"/>
+    <col min="22" max="24" width="6.58203125" style="56" customWidth="1"/>
+    <col min="25" max="25" width="9.4140625" style="57" customWidth="1"/>
+    <col min="26" max="26" width="3.25" style="58" customWidth="1"/>
+    <col min="27" max="27" width="6.58203125" style="58" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="55"/>
+    <col min="29" max="29" width="43.58203125" style="59" customWidth="1"/>
+    <col min="30" max="30" width="10.1640625" style="55" customWidth="1"/>
+    <col min="31" max="16384" width="8.6640625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="52">
+        <v>26</v>
+      </c>
+      <c r="E1" s="52">
+        <v>25</v>
+      </c>
+      <c r="F1" s="52">
+        <v>24</v>
+      </c>
+      <c r="G1" s="52">
+        <v>23</v>
+      </c>
+      <c r="H1" s="52">
+        <v>22</v>
+      </c>
+      <c r="I1" s="52">
+        <v>21</v>
+      </c>
+      <c r="J1" s="52">
+        <v>20</v>
+      </c>
+      <c r="K1" s="52">
+        <v>19</v>
+      </c>
+      <c r="L1" s="52">
+        <v>18</v>
+      </c>
+      <c r="M1" s="52">
+        <v>17</v>
+      </c>
+      <c r="N1" s="52">
+        <v>16</v>
+      </c>
+      <c r="O1" s="52">
+        <v>15</v>
+      </c>
+      <c r="P1" s="52">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="52">
+        <v>13</v>
+      </c>
+      <c r="R1" s="52">
+        <v>12</v>
+      </c>
+      <c r="S1" s="52">
+        <v>11</v>
+      </c>
+      <c r="T1" s="52">
+        <v>10</v>
+      </c>
+      <c r="U1" s="52">
+        <v>9</v>
+      </c>
+      <c r="V1" s="52">
+        <v>8</v>
+      </c>
+      <c r="W1" s="52">
+        <v>7</v>
+      </c>
+      <c r="X1" s="52">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+    </row>
+    <row r="2" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+    </row>
+    <row r="3" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52">
+        <v>0</v>
+      </c>
+      <c r="J3" s="52">
+        <v>1</v>
+      </c>
+      <c r="K3" s="52">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52">
+        <v>0</v>
+      </c>
+      <c r="M3" s="52">
+        <v>0</v>
+      </c>
+      <c r="N3" s="52">
+        <v>1</v>
+      </c>
+      <c r="O3" s="52">
+        <v>1</v>
+      </c>
+      <c r="P3" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>1</v>
+      </c>
+      <c r="R3" s="52">
+        <v>1</v>
+      </c>
+      <c r="S3" s="52">
+        <v>1</v>
+      </c>
+      <c r="T3" s="52">
+        <v>0</v>
+      </c>
+      <c r="U3" s="52">
+        <v>1</v>
+      </c>
+      <c r="V3" s="52">
+        <v>1</v>
+      </c>
+      <c r="W3" s="52">
+        <v>0</v>
+      </c>
+      <c r="X3" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+    </row>
+    <row r="4" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52">
+        <v>0</v>
+      </c>
+      <c r="F4" s="52">
+        <v>0</v>
+      </c>
+      <c r="G4" s="52">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52">
+        <v>1</v>
+      </c>
+      <c r="I4" s="52">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52">
+        <v>1</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0</v>
+      </c>
+      <c r="N4" s="52">
+        <v>1</v>
+      </c>
+      <c r="O4" s="52">
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>1</v>
+      </c>
+      <c r="R4" s="52">
+        <v>1</v>
+      </c>
+      <c r="S4" s="52">
+        <v>0</v>
+      </c>
+      <c r="T4" s="52">
+        <v>1</v>
+      </c>
+      <c r="U4" s="52">
+        <v>1</v>
+      </c>
+      <c r="V4" s="52">
+        <v>0</v>
+      </c>
+      <c r="W4" s="52">
+        <v>0</v>
+      </c>
+      <c r="X4" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+    </row>
+    <row r="5" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52">
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0</v>
+      </c>
+      <c r="N5" s="52">
+        <v>1</v>
+      </c>
+      <c r="O5" s="52">
+        <v>1</v>
+      </c>
+      <c r="P5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>1</v>
+      </c>
+      <c r="R5" s="52">
+        <v>1</v>
+      </c>
+      <c r="S5" s="52">
+        <v>1</v>
+      </c>
+      <c r="T5" s="52">
+        <v>1</v>
+      </c>
+      <c r="U5" s="52">
+        <v>0</v>
+      </c>
+      <c r="V5" s="52">
+        <v>0</v>
+      </c>
+      <c r="W5" s="52">
+        <v>0</v>
+      </c>
+      <c r="X5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+    </row>
+    <row r="6" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="52">
+        <v>1</v>
+      </c>
+      <c r="E6" s="52">
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>1</v>
+      </c>
+      <c r="G6" s="52">
+        <v>0</v>
+      </c>
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <v>1</v>
+      </c>
+      <c r="K6" s="52">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
+        <v>1</v>
+      </c>
+      <c r="M6" s="52">
+        <v>1</v>
+      </c>
+      <c r="N6" s="52">
+        <v>0</v>
+      </c>
+      <c r="O6" s="52">
+        <v>1</v>
+      </c>
+      <c r="P6" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>1</v>
+      </c>
+      <c r="R6" s="52">
+        <v>0</v>
+      </c>
+      <c r="S6" s="52">
+        <v>1</v>
+      </c>
+      <c r="T6" s="52">
+        <v>1</v>
+      </c>
+      <c r="U6" s="52">
+        <v>1</v>
+      </c>
+      <c r="V6" s="52">
+        <v>0</v>
+      </c>
+      <c r="W6" s="52">
+        <v>0</v>
+      </c>
+      <c r="X6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+    </row>
+    <row r="7" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="52">
+        <v>1</v>
+      </c>
+      <c r="E7" s="52">
+        <v>0</v>
+      </c>
+      <c r="F7" s="52">
+        <v>1</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <v>0</v>
+      </c>
+      <c r="M7" s="52">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52">
+        <v>1</v>
+      </c>
+      <c r="O7" s="52">
+        <v>1</v>
+      </c>
+      <c r="P7" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>1</v>
+      </c>
+      <c r="R7" s="52">
+        <v>1</v>
+      </c>
+      <c r="S7" s="52">
+        <v>1</v>
+      </c>
+      <c r="T7" s="52">
+        <v>1</v>
+      </c>
+      <c r="U7" s="52">
+        <v>1</v>
+      </c>
+      <c r="V7" s="52">
+        <v>0</v>
+      </c>
+      <c r="W7" s="52">
+        <v>0</v>
+      </c>
+      <c r="X7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+    </row>
+    <row r="8" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52">
+        <v>0</v>
+      </c>
+      <c r="H8" s="52">
+        <v>1</v>
+      </c>
+      <c r="I8" s="52">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52">
+        <v>0</v>
+      </c>
+      <c r="K8" s="52">
+        <v>0</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="52">
+        <v>0</v>
+      </c>
+      <c r="N8" s="52">
+        <v>1</v>
+      </c>
+      <c r="O8" s="52">
+        <v>1</v>
+      </c>
+      <c r="P8" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>1</v>
+      </c>
+      <c r="R8" s="52">
+        <v>1</v>
+      </c>
+      <c r="S8" s="52">
+        <v>1</v>
+      </c>
+      <c r="T8" s="52">
+        <v>1</v>
+      </c>
+      <c r="U8" s="52">
+        <v>1</v>
+      </c>
+      <c r="V8" s="52">
+        <v>0</v>
+      </c>
+      <c r="W8" s="52">
+        <v>0</v>
+      </c>
+      <c r="X8" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+    </row>
+    <row r="9" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="52">
+        <v>1</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <v>1</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0</v>
+      </c>
+      <c r="L9" s="52">
+        <v>0</v>
+      </c>
+      <c r="M9" s="52">
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <v>1</v>
+      </c>
+      <c r="O9" s="52">
+        <v>1</v>
+      </c>
+      <c r="P9" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="52">
+        <v>1</v>
+      </c>
+      <c r="R9" s="52">
+        <v>1</v>
+      </c>
+      <c r="S9" s="52">
+        <v>1</v>
+      </c>
+      <c r="T9" s="52">
+        <v>1</v>
+      </c>
+      <c r="U9" s="52">
+        <v>1</v>
+      </c>
+      <c r="V9" s="52">
+        <v>0</v>
+      </c>
+      <c r="W9" s="52">
+        <v>1</v>
+      </c>
+      <c r="X9" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+    </row>
+    <row r="10" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <v>0</v>
+      </c>
+      <c r="J10" s="52">
+        <v>1</v>
+      </c>
+      <c r="K10" s="52">
+        <v>0</v>
+      </c>
+      <c r="L10" s="52">
+        <v>0</v>
+      </c>
+      <c r="M10" s="52">
+        <v>0</v>
+      </c>
+      <c r="N10" s="52">
+        <v>1</v>
+      </c>
+      <c r="O10" s="52">
+        <v>1</v>
+      </c>
+      <c r="P10" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="52">
+        <v>1</v>
+      </c>
+      <c r="R10" s="52">
+        <v>1</v>
+      </c>
+      <c r="S10" s="52">
+        <v>1</v>
+      </c>
+      <c r="T10" s="52">
+        <v>1</v>
+      </c>
+      <c r="U10" s="52">
+        <v>1</v>
+      </c>
+      <c r="V10" s="52">
+        <v>0</v>
+      </c>
+      <c r="W10" s="52">
+        <v>0</v>
+      </c>
+      <c r="X10" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+    </row>
+    <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0</v>
+      </c>
+      <c r="E11" s="52">
+        <v>1</v>
+      </c>
+      <c r="F11" s="52">
+        <v>0</v>
+      </c>
+      <c r="G11" s="52">
+        <v>0</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52">
+        <v>0</v>
+      </c>
+      <c r="J11" s="52">
+        <v>1</v>
+      </c>
+      <c r="K11" s="52">
+        <v>0</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0</v>
+      </c>
+      <c r="M11" s="52">
+        <v>0</v>
+      </c>
+      <c r="N11" s="52">
+        <v>1</v>
+      </c>
+      <c r="O11" s="52">
+        <v>1</v>
+      </c>
+      <c r="P11" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="52">
+        <v>1</v>
+      </c>
+      <c r="R11" s="52">
+        <v>1</v>
+      </c>
+      <c r="S11" s="52">
+        <v>1</v>
+      </c>
+      <c r="T11" s="52">
+        <v>1</v>
+      </c>
+      <c r="U11" s="52">
+        <v>0</v>
+      </c>
+      <c r="V11" s="52">
+        <v>0</v>
+      </c>
+      <c r="W11" s="52">
+        <v>0</v>
+      </c>
+      <c r="X11" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+    </row>
+    <row r="12" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0</v>
+      </c>
+      <c r="F12" s="52">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52">
+        <v>1</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
+        <v>1</v>
+      </c>
+      <c r="N12" s="52">
+        <v>1</v>
+      </c>
+      <c r="O12" s="52">
+        <v>1</v>
+      </c>
+      <c r="P12" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="52">
+        <v>1</v>
+      </c>
+      <c r="R12" s="52">
+        <v>1</v>
+      </c>
+      <c r="S12" s="52">
+        <v>1</v>
+      </c>
+      <c r="T12" s="52">
+        <v>1</v>
+      </c>
+      <c r="U12" s="52">
+        <v>1</v>
+      </c>
+      <c r="V12" s="52">
+        <v>0</v>
+      </c>
+      <c r="W12" s="52">
+        <v>0</v>
+      </c>
+      <c r="X12" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+    </row>
+    <row r="13" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="52">
+        <v>1</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0</v>
+      </c>
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1</v>
+      </c>
+      <c r="J13" s="52">
+        <v>1</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0</v>
+      </c>
+      <c r="L13" s="52">
+        <v>1</v>
+      </c>
+      <c r="M13" s="52">
+        <v>0</v>
+      </c>
+      <c r="N13" s="52">
+        <v>0</v>
+      </c>
+      <c r="O13" s="52">
+        <v>1</v>
+      </c>
+      <c r="P13" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>1</v>
+      </c>
+      <c r="R13" s="52">
+        <v>1</v>
+      </c>
+      <c r="S13" s="52">
+        <v>1</v>
+      </c>
+      <c r="T13" s="52">
+        <v>1</v>
+      </c>
+      <c r="U13" s="52">
+        <v>1</v>
+      </c>
+      <c r="V13" s="52">
+        <v>0</v>
+      </c>
+      <c r="W13" s="52">
+        <v>0</v>
+      </c>
+      <c r="X13" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+    </row>
+    <row r="14" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="52">
+        <v>1</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0</v>
+      </c>
+      <c r="F14" s="52">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52">
+        <v>0</v>
+      </c>
+      <c r="H14" s="52">
+        <v>1</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1</v>
+      </c>
+      <c r="J14" s="52">
+        <v>1</v>
+      </c>
+      <c r="K14" s="52">
+        <v>0</v>
+      </c>
+      <c r="L14" s="52">
+        <v>1</v>
+      </c>
+      <c r="M14" s="52">
+        <v>1</v>
+      </c>
+      <c r="N14" s="52">
+        <v>0</v>
+      </c>
+      <c r="O14" s="52">
+        <v>1</v>
+      </c>
+      <c r="P14" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="52">
+        <v>1</v>
+      </c>
+      <c r="R14" s="52">
+        <v>1</v>
+      </c>
+      <c r="S14" s="52">
+        <v>1</v>
+      </c>
+      <c r="T14" s="52">
+        <v>1</v>
+      </c>
+      <c r="U14" s="52">
+        <v>1</v>
+      </c>
+      <c r="V14" s="52">
+        <v>0</v>
+      </c>
+      <c r="W14" s="52">
+        <v>0</v>
+      </c>
+      <c r="X14" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+    </row>
+    <row r="15" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0</v>
+      </c>
+      <c r="H15" s="52">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52">
+        <v>0</v>
+      </c>
+      <c r="J15" s="52">
+        <v>0</v>
+      </c>
+      <c r="K15" s="52">
+        <v>0</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0</v>
+      </c>
+      <c r="M15" s="52">
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
+        <v>1</v>
+      </c>
+      <c r="O15" s="52">
+        <v>1</v>
+      </c>
+      <c r="P15" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>1</v>
+      </c>
+      <c r="R15" s="52">
+        <v>1</v>
+      </c>
+      <c r="S15" s="52">
+        <v>1</v>
+      </c>
+      <c r="T15" s="52">
+        <v>1</v>
+      </c>
+      <c r="U15" s="52">
+        <v>1</v>
+      </c>
+      <c r="V15" s="52">
+        <v>0</v>
+      </c>
+      <c r="W15" s="52">
+        <v>0</v>
+      </c>
+      <c r="X15" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+    </row>
+    <row r="16" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1</v>
+      </c>
+      <c r="E16" s="52">
+        <v>0</v>
+      </c>
+      <c r="F16" s="52">
+        <v>0</v>
+      </c>
+      <c r="G16" s="52">
+        <v>0</v>
+      </c>
+      <c r="H16" s="52">
+        <v>0</v>
+      </c>
+      <c r="I16" s="52">
+        <v>0</v>
+      </c>
+      <c r="J16" s="52">
+        <v>0</v>
+      </c>
+      <c r="K16" s="52">
+        <v>0</v>
+      </c>
+      <c r="L16" s="52">
+        <v>0</v>
+      </c>
+      <c r="M16" s="52">
+        <v>0</v>
+      </c>
+      <c r="N16" s="52">
+        <v>1</v>
+      </c>
+      <c r="O16" s="52">
+        <v>1</v>
+      </c>
+      <c r="P16" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="52">
+        <v>0</v>
+      </c>
+      <c r="R16" s="52">
+        <v>0</v>
+      </c>
+      <c r="S16" s="52">
+        <v>1</v>
+      </c>
+      <c r="T16" s="52">
+        <v>1</v>
+      </c>
+      <c r="U16" s="52">
+        <v>1</v>
+      </c>
+      <c r="V16" s="52">
+        <v>0</v>
+      </c>
+      <c r="W16" s="52">
+        <v>0</v>
+      </c>
+      <c r="X16" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+    </row>
+    <row r="17" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0</v>
+      </c>
+      <c r="H17" s="52">
+        <v>1</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0</v>
+      </c>
+      <c r="J17" s="52">
+        <v>1</v>
+      </c>
+      <c r="K17" s="52">
+        <v>0</v>
+      </c>
+      <c r="L17" s="52">
+        <v>0</v>
+      </c>
+      <c r="M17" s="52">
+        <v>0</v>
+      </c>
+      <c r="N17" s="52">
+        <v>1</v>
+      </c>
+      <c r="O17" s="52">
+        <v>1</v>
+      </c>
+      <c r="P17" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>1</v>
+      </c>
+      <c r="R17" s="52">
+        <v>0</v>
+      </c>
+      <c r="S17" s="52">
+        <v>0</v>
+      </c>
+      <c r="T17" s="52">
+        <v>1</v>
+      </c>
+      <c r="U17" s="52">
+        <v>1</v>
+      </c>
+      <c r="V17" s="52">
+        <v>0</v>
+      </c>
+      <c r="W17" s="52">
+        <v>0</v>
+      </c>
+      <c r="X17" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+    </row>
+    <row r="18" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>1</v>
+      </c>
+      <c r="F18" s="52">
+        <v>0</v>
+      </c>
+      <c r="G18" s="52">
+        <v>0</v>
+      </c>
+      <c r="H18" s="52">
+        <v>0</v>
+      </c>
+      <c r="I18" s="52">
+        <v>0</v>
+      </c>
+      <c r="J18" s="52">
+        <v>1</v>
+      </c>
+      <c r="K18" s="52">
+        <v>0</v>
+      </c>
+      <c r="L18" s="52">
+        <v>0</v>
+      </c>
+      <c r="M18" s="52">
+        <v>0</v>
+      </c>
+      <c r="N18" s="52">
+        <v>1</v>
+      </c>
+      <c r="O18" s="52">
+        <v>1</v>
+      </c>
+      <c r="P18" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="52">
+        <v>1</v>
+      </c>
+      <c r="R18" s="52">
+        <v>1</v>
+      </c>
+      <c r="S18" s="52">
+        <v>1</v>
+      </c>
+      <c r="T18" s="52">
+        <v>1</v>
+      </c>
+      <c r="U18" s="52">
+        <v>0</v>
+      </c>
+      <c r="V18" s="52">
+        <v>0</v>
+      </c>
+      <c r="W18" s="52">
+        <v>0</v>
+      </c>
+      <c r="X18" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+    </row>
+    <row r="19" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>1</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0</v>
+      </c>
+      <c r="G19" s="52">
+        <v>0</v>
+      </c>
+      <c r="H19" s="52">
+        <v>0</v>
+      </c>
+      <c r="I19" s="52">
+        <v>0</v>
+      </c>
+      <c r="J19" s="52">
+        <v>1</v>
+      </c>
+      <c r="K19" s="52">
+        <v>0</v>
+      </c>
+      <c r="L19" s="52">
+        <v>0</v>
+      </c>
+      <c r="M19" s="52">
+        <v>0</v>
+      </c>
+      <c r="N19" s="52">
+        <v>1</v>
+      </c>
+      <c r="O19" s="52">
+        <v>1</v>
+      </c>
+      <c r="P19" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="52">
+        <v>1</v>
+      </c>
+      <c r="R19" s="52">
+        <v>1</v>
+      </c>
+      <c r="S19" s="52">
+        <v>1</v>
+      </c>
+      <c r="T19" s="52">
+        <v>1</v>
+      </c>
+      <c r="U19" s="52">
+        <v>0</v>
+      </c>
+      <c r="V19" s="52">
+        <v>0</v>
+      </c>
+      <c r="W19" s="52">
+        <v>0</v>
+      </c>
+      <c r="X19" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+    </row>
+    <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+    </row>
+    <row r="21" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>